--- a/Computational_Data/Overview_Energies/A_Isomer_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/A_Isomer_Energies.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAEDF6B-3568-8C44-BEA6-88B6AF623DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3580" windowWidth="18940" windowHeight="11400" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="18940" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,22 +75,22 @@
     <t>3-Disp</t>
   </si>
   <si>
-    <t>Relative Energy / kcal/mol</t>
-  </si>
-  <si>
-    <t>Relative Energy (Gas Phase) / kcal/mol</t>
-  </si>
-  <si>
     <t>[A]T_0</t>
   </si>
   <si>
     <t>F-R2-R2-Down-T</t>
+  </si>
+  <si>
+    <t>Relative Energy / kJ/mol</t>
+  </si>
+  <si>
+    <t>Relative Energy (Gas Phase) / kJ/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -167,6 +173,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -491,16 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -546,15 +560,15 @@
         <v>0.49510999999999999</v>
       </c>
       <c r="G2">
-        <f>(2*D2-D3)*627.5095</f>
-        <v>-8.0522772051303182</v>
+        <f>(2*D2-D3)*2625.5</f>
+        <v>-33.690731059959489</v>
       </c>
       <c r="H2">
-        <f>(2*E2-E3)*627.5095</f>
-        <v>2.4993703385389181</v>
+        <f>(2*E2-E3)*2625.5</f>
+        <v>10.457366500162834</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -574,11 +588,11 @@
         <v>1.0192289999999999</v>
       </c>
       <c r="G3">
-        <f>(D3-$D$3)*627.5095</f>
+        <f>(D3-$D$3)*2625.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -598,11 +612,11 @@
         <v>1.018904</v>
       </c>
       <c r="G4">
-        <f>(D4-$D$3)*627.5095</f>
-        <v>0.48818984070888471</v>
+        <f t="shared" ref="G4:G7" si="0">(D4-$D$3)*2625.5</f>
+        <v>2.0425864895769337</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -622,11 +636,11 @@
         <v>1.0204230000000001</v>
       </c>
       <c r="G5">
-        <f>(D5-$D$3)*627.5095</f>
-        <v>1.0539210304216413</v>
+        <f t="shared" si="0"/>
+        <v>4.409606014525707</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -646,16 +660,16 @@
         <v>1.0204610000000001</v>
       </c>
       <c r="G6">
-        <f>(D6-$D$3)*627.5095</f>
-        <v>1.8764165574280742</v>
+        <f t="shared" si="0"/>
+        <v>7.8509276298245823</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>-3109.9858442999998</v>
@@ -670,8 +684,8 @@
         <v>1.0094620000000001</v>
       </c>
       <c r="G7">
-        <f>(D7-$D$3)*627.5095</f>
-        <v>21.914200513745801</v>
+        <f t="shared" si="0"/>
+        <v>91.689023749982425</v>
       </c>
     </row>
   </sheetData>
